--- a/medicine/Sexualité et sexologie/Sugar_daddy/Sugar_daddy.xlsx
+++ b/medicine/Sexualité et sexologie/Sugar_daddy/Sugar_daddy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le terme « sugar daddy » (« papa en sucre ») est un anglicisme argotique utilisé pour désigner une relation de « sugardating » dans laquelle une personne au style de vie confortable offre la possibilité à une personne plus jeune qu'elle de partager son style de vie ce notamment au travers de cadeaux ou d'argent[1],[2],[3]. La pratique peut être désignée sous le terme de « michetonnage »[4].
-La personne plus jeune qui fournit des services en nature (compagnie voire relation sexuelle) est parfois désignée par l'expression « sugar baby »[1],[5]. Ces relations peuvent aussi fonctionner avec une femme plus âgée payant un jeune homme : on parle alors de « sugar mommy » et de « sugar boy » (gigolo). 
-Pour ces jeunes gens, le « sugardating » est un moyen d'accéder à la réussite sociale par le succès matériel et financier[3].
-Ces relations peuvent aussi être des relations homosexuelles dans le cas d'un homme ou d'une femme âgés payant respectivement un jeune homme ou une jeune femme[6].
+Le terme « sugar daddy » (« papa en sucre ») est un anglicisme argotique utilisé pour désigner une relation de « sugardating » dans laquelle une personne au style de vie confortable offre la possibilité à une personne plus jeune qu'elle de partager son style de vie ce notamment au travers de cadeaux ou d'argent. La pratique peut être désignée sous le terme de « michetonnage ».
+La personne plus jeune qui fournit des services en nature (compagnie voire relation sexuelle) est parfois désignée par l'expression « sugar baby »,. Ces relations peuvent aussi fonctionner avec une femme plus âgée payant un jeune homme : on parle alors de « sugar mommy » et de « sugar boy » (gigolo). 
+Pour ces jeunes gens, le « sugardating » est un moyen d'accéder à la réussite sociale par le succès matériel et financier.
+Ces relations peuvent aussi être des relations homosexuelles dans le cas d'un homme ou d'une femme âgés payant respectivement un jeune homme ou une jeune femme.
 </t>
         </is>
       </c>
@@ -515,11 +527,13 @@
           <t>Sugar dating et prostitution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le phénomène du « sugar dating » (sur Internet essentiellement) est la plupart du temps assimilé à de la prostitution, si bien que les sites qui en font commerce ont été attaqués en justice. Aux États-Unis comme en France, la justice n'a pas trouvé le moyen d'inculper l'un de ces sites, ceux-ci se défendant en disant qu'ils ne font que mettre en relation des personnes d'intérêts complémentaires[6].
-En 2017 en Belgique, le gérant d'un de ces sites internet a été condamné à six mois de prison avec sursis pour incitation à la prostitution. Dans ce pays. l'article 380, S 1er, 1°, du Code pénal punit quiconque, pour satisfaire les passions d'autrui, aura embauché, entraîné, détourné ou retenu, en vue de la débauche ou de la prostitution, même de son consentement, une personne majeure[7],[8].
-En France, l'enquête pour « proxénétisme aggravé » qui avait été ouverte fin octobre 2017 par le parquet de Paris contre le même site est toujours en cours[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le phénomène du « sugar dating » (sur Internet essentiellement) est la plupart du temps assimilé à de la prostitution, si bien que les sites qui en font commerce ont été attaqués en justice. Aux États-Unis comme en France, la justice n'a pas trouvé le moyen d'inculper l'un de ces sites, ceux-ci se défendant en disant qu'ils ne font que mettre en relation des personnes d'intérêts complémentaires.
+En 2017 en Belgique, le gérant d'un de ces sites internet a été condamné à six mois de prison avec sursis pour incitation à la prostitution. Dans ce pays. l'article 380, S 1er, 1°, du Code pénal punit quiconque, pour satisfaire les passions d'autrui, aura embauché, entraîné, détourné ou retenu, en vue de la débauche ou de la prostitution, même de son consentement, une personne majeure,.
+En France, l'enquête pour « proxénétisme aggravé » qui avait été ouverte fin octobre 2017 par le parquet de Paris contre le même site est toujours en cours.
 </t>
         </is>
       </c>
